--- a/Packages/cn.etetet.quest/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.quest/Luban/Config/Base/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.quest/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3844CA3-6B2A-9540-8D0C-43D0716FE660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B8E245-295F-6D47-974E-CEF4F330104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -128,6 +128,14 @@
   </si>
   <si>
     <t>../../../../cn.etetet.quest/Luban/Config/Datas/QuestObjective.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.quest/Luban/Config/Datas/Text.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +495,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -638,7 +646,27 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6" si="6">_xlfn.CONCAT("ET.",B6,"ConfigCategory")</f>
+        <v>ET.TextConfigCategory</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ref="D6" si="7">_xlfn.CONCAT(B6,"Config")</f>
+        <v>TextConfig</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" ref="L6" si="8">_xlfn.CONCAT(B6,"ConfigCategory")</f>
+        <v>TextConfigCategory</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="2"/>

--- a/Packages/cn.etetet.quest/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.quest/Luban/Config/Base/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.quest/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B8E245-295F-6D47-974E-CEF4F330104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E4038B-18C0-8D40-89DC-87A17B5B2461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -128,14 +128,6 @@
   </si>
   <si>
     <t>../../../../cn.etetet.quest/Luban/Config/Datas/QuestObjective.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.quest/Luban/Config/Datas/Text.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -646,27 +638,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6" si="6">_xlfn.CONCAT("ET.",B6,"ConfigCategory")</f>
-        <v>ET.TextConfigCategory</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" ref="D6" si="7">_xlfn.CONCAT(B6,"Config")</f>
-        <v>TextConfig</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" ref="L6" si="8">_xlfn.CONCAT(B6,"ConfigCategory")</f>
-        <v>TextConfigCategory</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="2"/>
@@ -715,9 +687,6 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Packages/cn.etetet.quest/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.quest/Luban/Config/Base/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.quest/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E4038B-18C0-8D40-89DC-87A17B5B2461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4603A85-A9B5-FC46-9E56-6081165843E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,25 +117,24 @@
   </si>
   <si>
     <t>Quest</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>QuestObjective</t>
   </si>
   <si>
     <t>../../../../cn.etetet.quest/Luban/Config/Datas/Quest.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>../../../../cn.etetet.quest/Luban/Config/Datas/QuestObjective.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,13 +153,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -202,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -487,7 +479,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -496,7 +488,7 @@
     <col min="3" max="3" width="41.33203125" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" customWidth="1"/>
     <col min="5" max="5" width="58.33203125" customWidth="1"/>
-    <col min="6" max="6" width="67.1640625" customWidth="1"/>
+    <col min="6" max="6" width="50.83203125" customWidth="1"/>
     <col min="7" max="10" width="18" customWidth="1"/>
     <col min="12" max="12" width="47.33203125" customWidth="1"/>
   </cols>
@@ -592,15 +584,15 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4" si="0">_xlfn.CONCAT("ET.",B4,"ConfigCategory")</f>
+        <f>_xlfn.CONCAT("ET.",B4,"ConfigCategory")</f>
         <v>ET.QuestConfigCategory</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4" si="1">_xlfn.CONCAT(B4,"Config")</f>
+        <f t="shared" ref="D4:D5" si="0">_xlfn.CONCAT(B4,"Config")</f>
         <v>QuestConfig</v>
       </c>
       <c r="E4" t="b">
@@ -610,7 +602,7 @@
         <v>29</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4" si="2">_xlfn.CONCAT(B4,"ConfigCategory")</f>
+        <f t="shared" ref="L4:L5" si="1">_xlfn.CONCAT(B4,"ConfigCategory")</f>
         <v>QuestConfigCategory</v>
       </c>
     </row>
@@ -619,11 +611,11 @@
         <v>28</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5" si="3">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
+        <f t="shared" ref="C5" si="2">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
         <v>ET.QuestObjectiveConfigCategory</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5" si="4">_xlfn.CONCAT(B5,"Config")</f>
+        <f t="shared" si="0"/>
         <v>QuestObjectiveConfig</v>
       </c>
       <c r="E5" t="b">
@@ -633,7 +625,7 @@
         <v>30</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ref="L5" si="5">_xlfn.CONCAT(B5,"ConfigCategory")</f>
+        <f t="shared" si="1"/>
         <v>QuestObjectiveConfigCategory</v>
       </c>
     </row>
@@ -689,7 +681,7 @@
       <c r="B22" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
